--- a/Estimation/estimation_summaries.xlsx
+++ b/Estimation/estimation_summaries.xlsx
@@ -1,44 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timursalakhetdinov/Documents/1Study/1Germany/Leuphana Uni/Semester 2/Probabilistic modelling/Abe_2009_model_implementation/Estimation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E58452-49C0-154B-B531-B92D9644D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std. dev.</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Number of repeats</t>
+  </si>
+  <si>
+    <t>Observation duration T (days)</t>
+  </si>
+  <si>
+    <t>Recency (T - t) (days)</t>
+  </si>
+  <si>
+    <t>Amount of initial purchase ($)</t>
+  </si>
+  <si>
+    <t>HB M1 (no covariates)</t>
+  </si>
+  <si>
+    <t>HB M2 (with a covariate)</t>
+  </si>
+  <si>
+    <t>2.5%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>97.5%</t>
+  </si>
+  <si>
+    <t>Purchase rate log(lambda) Intercept</t>
+  </si>
+  <si>
+    <t>Purchase rate log(lambda) Initial amount ($ 10^-3)</t>
+  </si>
+  <si>
+    <t>Dropout rate log(mu) Intercept</t>
+  </si>
+  <si>
+    <t>Dropout rate log(mu) Initial amount ($ 10^-3)</t>
+  </si>
+  <si>
+    <t>sigma^2_lambda = var[log lambda]</t>
+  </si>
+  <si>
+    <t>sigma^2_mu = var[log mu]</t>
+  </si>
+  <si>
+    <t>sigma_lambda_mu = cov[log lambda, log mu]</t>
+  </si>
+  <si>
+    <t>Correlation computed from Γ₀</t>
+  </si>
+  <si>
+    <t>Marginal log-likelihood</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -47,121 +125,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -449,114 +459,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Std. dev.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Number of repeats</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5">
         <v>1.042426813746288</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.19001412096151</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" s="5">
+        <v>2.1900141209615098</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>29</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Observation duration T (days)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
         <v>229.011030971574</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="5">
         <v>23.28865621170895</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>189</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>272</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Recency (T - t) (days)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>181.0903691132796</v>
-      </c>
-      <c r="C4" t="n">
-        <v>77.1076677392371</v>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>181.09036911327959</v>
+      </c>
+      <c r="C4" s="5">
+        <v>77.107667739237101</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>272</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Amount of initial purchase ($)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>32.53073398387781</v>
-      </c>
-      <c r="C5" t="n">
-        <v>33.64278792526917</v>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5">
+        <v>32.530733983877809</v>
+      </c>
+      <c r="C5" s="5">
+        <v>33.642787925269168</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>506.97</v>
       </c>
     </row>
@@ -566,273 +563,228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>HB M1 (no covariates)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>HB M2 (with a covariate)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>97.5%</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>97.5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Purchase rate log(lambda) Intercept</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
         <v>-3.77</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>-3.58</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-3.44</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-3.74</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-3.58</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-3.4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Purchase rate log(lambda) Initial amount ($ 10^-3)</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
         <v>0.06</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.21</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.31</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Dropout rate log(mu) Intercept</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>-3.85</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>-3.59</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-3.33</v>
       </c>
-      <c r="E6" t="n">
-        <v>-4.11</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6">
+        <v>-4.1100000000000003</v>
+      </c>
+      <c r="F6">
         <v>-3.68</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-3.36</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Dropout rate log(mu) Initial amount ($ 10^-3)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="F7" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="F7">
         <v>0.06</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.27</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>sigma^2_lambda = var[log lambda]</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="C8" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8">
         <v>1.4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>1.62</v>
       </c>
-      <c r="E8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F8">
         <v>1.37</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>1.73</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>sigma^2_mu = var[log mu]</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
         <v>-0.2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.06</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.47</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-0.13</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.23</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.74</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>sigma_lambda_mu = cov[log lambda, log mu]</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
         <v>0.9</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.87</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>3.75</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>1.57</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>2.8</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>4.42</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Correlation computed from Γ₀</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
         <v>-0.16</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.04</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.24</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-0.08</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.12</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.32</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Marginal log-likelihood</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>-5.599</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>-5.498</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>-5.5990000000000002</v>
+      </c>
+      <c r="F12">
+        <v>-5.4980000000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Estimation/estimation_summaries.xlsx
+++ b/Estimation/estimation_summaries.xlsx
@@ -1,122 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timursalakhetdinov/Documents/1Study/1Germany/Leuphana Uni/Semester 2/Probabilistic modelling/Abe_2009_model_implementation/Estimation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E58452-49C0-154B-B531-B92D9644D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Table 3" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std. dev.</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Number of repeats</t>
-  </si>
-  <si>
-    <t>Observation duration T (days)</t>
-  </si>
-  <si>
-    <t>Recency (T - t) (days)</t>
-  </si>
-  <si>
-    <t>Amount of initial purchase ($)</t>
-  </si>
-  <si>
-    <t>HB M1 (no covariates)</t>
-  </si>
-  <si>
-    <t>HB M2 (with a covariate)</t>
-  </si>
-  <si>
-    <t>2.5%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>97.5%</t>
-  </si>
-  <si>
-    <t>Purchase rate log(lambda) Intercept</t>
-  </si>
-  <si>
-    <t>Purchase rate log(lambda) Initial amount ($ 10^-3)</t>
-  </si>
-  <si>
-    <t>Dropout rate log(mu) Intercept</t>
-  </si>
-  <si>
-    <t>Dropout rate log(mu) Initial amount ($ 10^-3)</t>
-  </si>
-  <si>
-    <t>sigma^2_lambda = var[log lambda]</t>
-  </si>
-  <si>
-    <t>sigma^2_mu = var[log mu]</t>
-  </si>
-  <si>
-    <t>sigma_lambda_mu = cov[log lambda, log mu]</t>
-  </si>
-  <si>
-    <t>Correlation computed from Γ₀</t>
-  </si>
-  <si>
-    <t>Marginal log-likelihood</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -125,53 +47,121 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -459,101 +449,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Std. dev.</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Number of repeats</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1.042426813746288</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.19001412096151</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1.042426813746288</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2.1900141209615098</v>
-      </c>
-      <c r="D2">
+      <c r="E2" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Observation duration T (days)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>229.011030971574</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23.28865621170895</v>
+      </c>
+      <c r="D3" t="n">
+        <v>189</v>
+      </c>
+      <c r="E3" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Recency (T - t) (days)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>181.0903691132796</v>
+      </c>
+      <c r="C4" t="n">
+        <v>77.1076677392371</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5">
-        <v>229.011030971574</v>
-      </c>
-      <c r="C3" s="5">
-        <v>23.28865621170895</v>
-      </c>
-      <c r="D3">
-        <v>189</v>
-      </c>
-      <c r="E3">
+      <c r="E4" t="n">
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5">
-        <v>181.09036911327959</v>
-      </c>
-      <c r="C4" s="5">
-        <v>77.107667739237101</v>
-      </c>
-      <c r="D4">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Amount of initial purchase ($)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>32.53073398387781</v>
+      </c>
+      <c r="C5" t="n">
+        <v>33.64278792526917</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E4">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5">
-        <v>32.530733983877809</v>
-      </c>
-      <c r="C5" s="5">
-        <v>33.642787925269168</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>506.97</v>
       </c>
     </row>
@@ -563,228 +566,273 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="40" style="4" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>HB M1 (no covariates)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>HB M2 (with a covariate)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>97.5%</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>97.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Purchase rate log(lambda) Intercept</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-3.77</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>-3.58</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>-3.44</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>-3.74</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>-3.58</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>-3.4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Purchase rate log(lambda) Initial amount ($ 10^-3)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="n">
         <v>0.06</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.21</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Dropout rate log(mu) Intercept</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>-3.85</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>-3.59</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>-3.33</v>
       </c>
-      <c r="E6">
-        <v>-4.1100000000000003</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="F6" t="n">
         <v>-3.68</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>-3.36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="F7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Dropout rate log(mu) Initial amount ($ 10^-3)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.06</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>sigma^2_lambda = var[log lambda]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C8" t="n">
         <v>1.4</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>1.62</v>
       </c>
-      <c r="E8">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.37</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>1.73</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>sigma^2_mu = var[log mu]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>-0.2</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>0.06</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.47</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>-0.13</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.23</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.74</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>sigma_lambda_mu = cov[log lambda, log mu]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>0.9</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>1.87</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>3.75</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>1.57</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>2.8</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>4.42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Correlation computed from Γ₀</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>-0.16</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>0.04</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>0.24</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>-0.08</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.12</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0.32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>-5.5990000000000002</v>
-      </c>
-      <c r="F12">
-        <v>-5.4980000000000002</v>
-      </c>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Marginal log-likelihood</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>-5.599</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-5.498</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Estimation/estimation_summaries.xlsx
+++ b/Estimation/estimation_summaries.xlsx
@@ -758,7 +758,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Purchase rate log(lambda) Intercept</t>
+          <t>Purchase rate log(λ) - Intercept</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -783,7 +783,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Purchase rate log(lambda) Initial amount ($ 10^-3)</t>
+          <t>Purchase rate log(λ) - Initial amount ($ 10^-3)</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -799,7 +799,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Dropout rate log(mu) Intercept</t>
+          <t>Dropout rate log(μ) - Intercept</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -824,7 +824,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Dropout rate log(mu) Initial amount ($ 10^-3)</t>
+          <t>Dropout rate log(μ) - Initial amount ($ 10^-3)</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -840,7 +840,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>sigma^2_lambda = var[log lambda]</t>
+          <t>sigma^2_λ = var[log λ]</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -865,7 +865,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>sigma^2_mu = var[log mu]</t>
+          <t>sigma^2_μ = var[log μ]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -890,7 +890,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>sigma_lambda_mu = cov[log lambda, log mu]</t>
+          <t>sigma_λ_μ = cov[log λ, log μ]</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Estimation/estimation_summaries.xlsx
+++ b/Estimation/estimation_summaries.xlsx
@@ -607,6 +607,9 @@
           <t>Disaggregate measure</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -640,6 +643,12 @@
         <v>0.98</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
@@ -672,12 +681,21 @@
         <v>0.75</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
           <t>Aggregate measure</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -685,6 +703,9 @@
           <t>Time-series MAPE (%)</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -760,15 +781,15 @@
           <t>HB M1 (no covariates)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>HB M2 (with a covariate)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr"/>
@@ -834,9 +855,6 @@
           <t>Purchase rate log(λ) - Initial amount ($ 10^-3)</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>0.06</v>
       </c>
@@ -878,9 +896,6 @@
           <t>Dropout rate log(μ) - Initial amount ($ 10^-3)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>-0.29</v>
       </c>
@@ -997,16 +1012,12 @@
           <t>Marginal log-likelihood</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
         <v>-13197</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>-12959</v>
       </c>
-      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Estimation/estimation_summaries.xlsx
+++ b/Estimation/estimation_summaries.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -51,15 +54,45 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -534,4 +567,1346 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Pareto/NBD</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>HB M1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>HB M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Disaggregate measure</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Correlation (Validation)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Correlation (Calibration)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MSE (Validation)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MSE (Calibration)</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aggregate measure</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Time-series MAPE (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MAPE (Validation)</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MAPE (Calibration)</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MAPE (Pooled)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>HB M1 (no covariates)</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>HB M2 (with a covariate)</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>97.5%</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>97.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Purchase rate log(λ) - Intercept</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.77</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-3.74</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Purchase rate log(λ) - Initial amount ($ 10^-3)</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Dropout rate log(μ) - Intercept</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-3.85</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-3.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Dropout rate log(μ) - Initial amount ($ 10^-3)</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>sigma^2_λ = var[log λ]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>sigma^2_μ = var[log μ]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>sigma_λ_μ = cov[log λ, log μ]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Correlation computed from Γ₀</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Marginal log-likelihood</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-15207</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-14970</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean(λ)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2.5% tile λ</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>97.5% tile λ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Mean(μ)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2.5% tile μ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>97.5% tile μ</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Mean exp lifetime (yrs)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Survival rate (1yr)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>P(alive at T_cal)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Exp # of trans in val period</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.783</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0711</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0506</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="K3" t="n">
+        <v>20.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0149</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0985</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0159</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0526</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0148</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0537</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="K6" t="n">
+        <v>13.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0158</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0569</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.622</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0496</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0532</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.157</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0727</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="K11" t="n">
+        <v>8.380000000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>…</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>2348</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0307</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.3247</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>2349</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0338</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.077</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>2350</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.0448</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>2351</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0337</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5417</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>2352</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0424</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3856</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>2353</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.824</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0411</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.2952</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>2354</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0345</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0043</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2315</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>2355</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5598</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.567</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0458</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.1982</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>2357</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.554</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0417</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3845</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Ave</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0272</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6592</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.449</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0111</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0419</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0458</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0101</v>
+      </c>
+      <c r="G25" t="n">
+        <v>28.0558</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>22.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Estimation/estimation_summaries.xlsx
+++ b/Estimation/estimation_summaries.xlsx
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.53</v>
+        <v>6.54</v>
       </c>
       <c r="C11" t="n">
         <v>11.17</v>
